--- a/main/ig/CodeSystem-eclaire-group-characteristic-kind-code-system.xlsx
+++ b/main/ig/CodeSystem-eclaire-group-characteristic-kind-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-26T09:06:25+00:00</t>
+    <t>2024-02-26T09:28:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-eclaire-group-characteristic-kind-code-system.xlsx
+++ b/main/ig/CodeSystem-eclaire-group-characteristic-kind-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-26T09:28:43+00:00</t>
+    <t>2024-02-26T09:31:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-eclaire-group-characteristic-kind-code-system.xlsx
+++ b/main/ig/CodeSystem-eclaire-group-characteristic-kind-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-26T09:31:02+00:00</t>
+    <t>2024-02-26T09:52:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-eclaire-group-characteristic-kind-code-system.xlsx
+++ b/main/ig/CodeSystem-eclaire-group-characteristic-kind-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-26T09:52:51+00:00</t>
+    <t>2024-02-26T12:32:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-eclaire-group-characteristic-kind-code-system.xlsx
+++ b/main/ig/CodeSystem-eclaire-group-characteristic-kind-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-26T12:32:28+00:00</t>
+    <t>2024-02-26T13:08:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-eclaire-group-characteristic-kind-code-system.xlsx
+++ b/main/ig/CodeSystem-eclaire-group-characteristic-kind-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-26T13:08:48+00:00</t>
+    <t>2024-02-26T13:26:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-eclaire-group-characteristic-kind-code-system.xlsx
+++ b/main/ig/CodeSystem-eclaire-group-characteristic-kind-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-26T13:26:21+00:00</t>
+    <t>2024-03-14T09:59:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-eclaire-group-characteristic-kind-code-system.xlsx
+++ b/main/ig/CodeSystem-eclaire-group-characteristic-kind-code-system.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.0</t>
+    <t>0.3.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-14T09:59:11+00:00</t>
+    <t>2024-03-14T13:53:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
